--- a/BinanceFuture_Input.xlsx
+++ b/BinanceFuture_Input.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m01\Desktop\Researchan\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068F4366-F773-460C-971F-2159DE25F21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9772D19-344F-40BF-AD3C-EE2D40A0278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -403,36 +416,24 @@
     <t>4275</t>
   </si>
   <si>
-    <t>COMP</t>
-  </si>
-  <si>
     <t>compound-governance-token</t>
   </si>
   <si>
     <t>5692</t>
   </si>
   <si>
-    <t>COTI</t>
-  </si>
-  <si>
     <t>coti</t>
   </si>
   <si>
     <t>3992</t>
   </si>
   <si>
-    <t>CRV</t>
-  </si>
-  <si>
     <t>curve-dao-token</t>
   </si>
   <si>
     <t>6538</t>
   </si>
   <si>
-    <t>CTK</t>
-  </si>
-  <si>
     <t>certik</t>
   </si>
   <si>
@@ -1640,10 +1641,6 @@
   </si>
   <si>
     <t>1896</t>
-  </si>
-  <si>
-    <t>Binance Ticker</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MAV</t>
@@ -1719,6 +1716,25 @@
   </si>
   <si>
     <t>adventure-gold</t>
+  </si>
+  <si>
+    <t>CTK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COTI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BinanceTicker</t>
   </si>
 </sst>
 </file>
@@ -2098,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="K200" sqref="K200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2111,10 +2127,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2177,10 +2193,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C7" s="2">
         <v>11568</v>
@@ -2309,10 +2325,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B19" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C19" s="2">
         <v>27565</v>
@@ -2606,329 +2622,329 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B46" t="s">
         <v>127</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>556</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>136</v>
+        <v>555</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C75" s="2">
         <v>11877</v>
@@ -2936,21 +2952,21 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C77" s="2">
         <v>18069</v>
@@ -2958,175 +2974,175 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B79" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B86" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B88" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B89" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B91" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B92" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C93" s="2">
         <v>1720</v>
@@ -3134,197 +3150,197 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B94" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B98" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B99" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B101" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B102" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B104" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B105" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B107" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B108" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B110" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B111" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C111" s="2">
         <v>20314</v>
@@ -3332,65 +3348,65 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B112" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B113" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B114" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B115" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B116" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B117" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C117" s="2">
         <v>18037</v>
@@ -3398,10 +3414,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B118" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C118" s="2">
         <v>2348</v>
@@ -3409,76 +3425,76 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B119" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B120" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B121" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B122" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B123" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B124" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B125" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C125" s="2">
         <v>1732</v>
@@ -3486,43 +3502,43 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B126" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B127" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B128" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B129" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C129" s="2">
         <v>3945</v>
@@ -3530,32 +3546,32 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B130" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B131" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B132" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C132" s="2">
         <v>9481</v>
@@ -3563,494 +3579,494 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B133" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B134" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B135" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B136" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B137" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B138" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B139" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B140" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B141" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B142" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B143" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B144" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B145" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B146" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B147" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B148" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B149" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B150" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B151" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B152" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B153" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B154" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B155" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B156" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B157" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B158" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B159" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B160" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B161" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B162" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B163" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B164" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B165" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B166" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B167" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B168" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B169" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B170" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B171" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B172" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B173" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B174" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B175" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B176" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B177" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C177" s="2">
         <v>13502</v>
@@ -4058,87 +4074,87 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B178" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B179" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B180" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B181" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B182" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B183" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B184" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B185" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C185" s="2">
         <v>693</v>
@@ -4146,68 +4162,68 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B186" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B187" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B188" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B189" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B190" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B191" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/BinanceFuture_Input.xlsx
+++ b/BinanceFuture_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m01\Desktop\Researchan\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9772D19-344F-40BF-AD3C-EE2D40A0278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD58161-10DE-4B6D-B211-6ED9B9A9544C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="565">
   <si>
     <t>CMC_id</t>
   </si>
@@ -1735,6 +1735,24 @@
   </si>
   <si>
     <t>BinanceTicker</t>
+  </si>
+  <si>
+    <t>Upbit_KRW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upbit_BTC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bithumb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1793,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1798,16 +1816,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2112,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="K200" sqref="K200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2123,21 +2217,33 @@
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2146,8 +2252,17 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2157,8 +2272,17 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2168,8 +2292,17 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2179,8 +2312,17 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2190,8 +2332,17 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>553</v>
       </c>
@@ -2201,8 +2352,17 @@
       <c r="C7" s="2">
         <v>11568</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2212,8 +2372,17 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2223,8 +2392,17 @@
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -2234,8 +2412,17 @@
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -2245,8 +2432,17 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2256,8 +2452,17 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -2267,8 +2472,17 @@
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2278,8 +2492,17 @@
       <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -2289,8 +2512,17 @@
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2300,8 +2532,17 @@
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -2311,8 +2552,17 @@
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -2322,8 +2572,17 @@
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>551</v>
       </c>
@@ -2333,8 +2592,17 @@
       <c r="C19" s="2">
         <v>27565</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -2344,8 +2612,17 @@
       <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -2355,8 +2632,17 @@
       <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -2366,8 +2652,17 @@
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -2377,8 +2672,17 @@
       <c r="C23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -2388,8 +2692,17 @@
       <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -2399,8 +2712,17 @@
       <c r="C25" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2410,8 +2732,17 @@
       <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -2421,8 +2752,17 @@
       <c r="C27" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
@@ -2432,8 +2772,17 @@
       <c r="C28" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -2443,8 +2792,17 @@
       <c r="C29" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
@@ -2454,8 +2812,17 @@
       <c r="C30" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -2465,8 +2832,17 @@
       <c r="C31" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
@@ -2476,8 +2852,17 @@
       <c r="C32" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
@@ -2487,8 +2872,17 @@
       <c r="C33" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -2498,8 +2892,17 @@
       <c r="C34" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -2509,8 +2912,17 @@
       <c r="C35" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
@@ -2520,8 +2932,17 @@
       <c r="C36" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -2531,8 +2952,17 @@
       <c r="C37" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
@@ -2542,8 +2972,17 @@
       <c r="C38" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
@@ -2553,8 +2992,17 @@
       <c r="C39" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>109</v>
       </c>
@@ -2564,8 +3012,17 @@
       <c r="C40" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>112</v>
       </c>
@@ -2575,8 +3032,17 @@
       <c r="C41" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
@@ -2586,8 +3052,17 @@
       <c r="C42" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>118</v>
       </c>
@@ -2597,8 +3072,17 @@
       <c r="C43" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>121</v>
       </c>
@@ -2608,8 +3092,17 @@
       <c r="C44" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>124</v>
       </c>
@@ -2619,8 +3112,17 @@
       <c r="C45" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>558</v>
       </c>
@@ -2630,8 +3132,17 @@
       <c r="C46" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>557</v>
       </c>
@@ -2641,8 +3152,17 @@
       <c r="C47" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>556</v>
       </c>
@@ -2652,8 +3172,17 @@
       <c r="C48" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>555</v>
       </c>
@@ -2663,8 +3192,17 @@
       <c r="C49" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
@@ -2674,8 +3212,17 @@
       <c r="C50" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
@@ -2685,8 +3232,17 @@
       <c r="C51" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
@@ -2696,8 +3252,17 @@
       <c r="C52" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>144</v>
       </c>
@@ -2707,8 +3272,17 @@
       <c r="C53" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>147</v>
       </c>
@@ -2718,8 +3292,17 @@
       <c r="C54" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>150</v>
       </c>
@@ -2729,8 +3312,17 @@
       <c r="C55" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
@@ -2740,8 +3332,17 @@
       <c r="C56" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>156</v>
       </c>
@@ -2751,8 +3352,17 @@
       <c r="C57" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>159</v>
       </c>
@@ -2762,8 +3372,17 @@
       <c r="C58" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>162</v>
       </c>
@@ -2773,8 +3392,17 @@
       <c r="C59" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>165</v>
       </c>
@@ -2784,8 +3412,17 @@
       <c r="C60" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>168</v>
       </c>
@@ -2795,8 +3432,17 @@
       <c r="C61" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>171</v>
       </c>
@@ -2806,8 +3452,17 @@
       <c r="C62" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>174</v>
       </c>
@@ -2817,8 +3472,17 @@
       <c r="C63" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>177</v>
       </c>
@@ -2828,8 +3492,17 @@
       <c r="C64" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>180</v>
       </c>
@@ -2839,8 +3512,17 @@
       <c r="C65" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>183</v>
       </c>
@@ -2850,8 +3532,17 @@
       <c r="C66" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
@@ -2861,8 +3552,17 @@
       <c r="C67" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>189</v>
       </c>
@@ -2872,8 +3572,17 @@
       <c r="C68" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
@@ -2883,8 +3592,17 @@
       <c r="C69" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>195</v>
       </c>
@@ -2894,8 +3612,17 @@
       <c r="C70" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
@@ -2905,8 +3632,17 @@
       <c r="C71" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>201</v>
       </c>
@@ -2916,8 +3652,17 @@
       <c r="C72" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
@@ -2927,8 +3672,17 @@
       <c r="C73" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
@@ -2938,8 +3692,17 @@
       <c r="C74" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>210</v>
       </c>
@@ -2949,8 +3712,17 @@
       <c r="C75" s="2">
         <v>11877</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>212</v>
       </c>
@@ -2960,8 +3732,17 @@
       <c r="C76" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>215</v>
       </c>
@@ -2971,8 +3752,17 @@
       <c r="C77" s="2">
         <v>18069</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>217</v>
       </c>
@@ -2982,8 +3772,17 @@
       <c r="C78" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>220</v>
       </c>
@@ -2993,8 +3792,17 @@
       <c r="C79" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>223</v>
       </c>
@@ -3004,8 +3812,17 @@
       <c r="C80" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>226</v>
       </c>
@@ -3015,8 +3832,17 @@
       <c r="C81" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>229</v>
       </c>
@@ -3026,8 +3852,17 @@
       <c r="C82" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
@@ -3037,8 +3872,17 @@
       <c r="C83" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>235</v>
       </c>
@@ -3048,8 +3892,17 @@
       <c r="C84" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>238</v>
       </c>
@@ -3059,8 +3912,17 @@
       <c r="C85" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>241</v>
       </c>
@@ -3070,8 +3932,17 @@
       <c r="C86" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>244</v>
       </c>
@@ -3081,8 +3952,17 @@
       <c r="C87" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>247</v>
       </c>
@@ -3092,8 +3972,17 @@
       <c r="C88" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>250</v>
       </c>
@@ -3103,8 +3992,17 @@
       <c r="C89" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>253</v>
       </c>
@@ -3114,8 +4012,17 @@
       <c r="C90" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>256</v>
       </c>
@@ -3125,8 +4032,17 @@
       <c r="C91" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>259</v>
       </c>
@@ -3136,8 +4052,17 @@
       <c r="C92" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>262</v>
       </c>
@@ -3147,8 +4072,17 @@
       <c r="C93" s="2">
         <v>1720</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>264</v>
       </c>
@@ -3158,8 +4092,17 @@
       <c r="C94" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>267</v>
       </c>
@@ -3169,8 +4112,17 @@
       <c r="C95" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>270</v>
       </c>
@@ -3180,8 +4132,17 @@
       <c r="C96" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>273</v>
       </c>
@@ -3191,8 +4152,17 @@
       <c r="C97" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>276</v>
       </c>
@@ -3202,8 +4172,17 @@
       <c r="C98" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>279</v>
       </c>
@@ -3213,8 +4192,17 @@
       <c r="C99" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>282</v>
       </c>
@@ -3224,8 +4212,17 @@
       <c r="C100" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>285</v>
       </c>
@@ -3235,8 +4232,17 @@
       <c r="C101" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>288</v>
       </c>
@@ -3246,8 +4252,17 @@
       <c r="C102" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>291</v>
       </c>
@@ -3257,8 +4272,17 @@
       <c r="C103" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>294</v>
       </c>
@@ -3268,8 +4292,17 @@
       <c r="C104" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>297</v>
       </c>
@@ -3279,8 +4312,17 @@
       <c r="C105" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>300</v>
       </c>
@@ -3290,8 +4332,17 @@
       <c r="C106" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>303</v>
       </c>
@@ -3301,8 +4352,17 @@
       <c r="C107" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>306</v>
       </c>
@@ -3312,8 +4372,17 @@
       <c r="C108" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>309</v>
       </c>
@@ -3323,8 +4392,17 @@
       <c r="C109" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>312</v>
       </c>
@@ -3334,8 +4412,17 @@
       <c r="C110" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>315</v>
       </c>
@@ -3345,8 +4432,17 @@
       <c r="C111" s="2">
         <v>20314</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>317</v>
       </c>
@@ -3356,8 +4452,17 @@
       <c r="C112" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>320</v>
       </c>
@@ -3367,8 +4472,17 @@
       <c r="C113" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>323</v>
       </c>
@@ -3378,8 +4492,17 @@
       <c r="C114" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>326</v>
       </c>
@@ -3389,8 +4512,17 @@
       <c r="C115" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>329</v>
       </c>
@@ -3400,8 +4532,17 @@
       <c r="C116" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>536</v>
       </c>
@@ -3411,8 +4552,17 @@
       <c r="C117" s="2">
         <v>18037</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>537</v>
       </c>
@@ -3422,8 +4572,17 @@
       <c r="C118" s="2">
         <v>2348</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>332</v>
       </c>
@@ -3433,8 +4592,17 @@
       <c r="C119" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>335</v>
       </c>
@@ -3444,8 +4612,17 @@
       <c r="C120" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>338</v>
       </c>
@@ -3455,8 +4632,17 @@
       <c r="C121" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>341</v>
       </c>
@@ -3466,8 +4652,17 @@
       <c r="C122" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>344</v>
       </c>
@@ -3477,8 +4672,17 @@
       <c r="C123" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>347</v>
       </c>
@@ -3488,8 +4692,17 @@
       <c r="C124" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>540</v>
       </c>
@@ -3499,8 +4712,17 @@
       <c r="C125" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>541</v>
       </c>
@@ -3510,8 +4732,17 @@
       <c r="C126" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>352</v>
       </c>
@@ -3521,8 +4752,17 @@
       <c r="C127" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>355</v>
       </c>
@@ -3532,8 +4772,17 @@
       <c r="C128" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>358</v>
       </c>
@@ -3543,8 +4792,17 @@
       <c r="C129" s="2">
         <v>3945</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>360</v>
       </c>
@@ -3554,8 +4812,17 @@
       <c r="C130" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>363</v>
       </c>
@@ -3565,8 +4832,17 @@
       <c r="C131" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>546</v>
       </c>
@@ -3576,8 +4852,17 @@
       <c r="C132" s="2">
         <v>9481</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>366</v>
       </c>
@@ -3587,8 +4872,17 @@
       <c r="C133" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>369</v>
       </c>
@@ -3598,8 +4892,17 @@
       <c r="C134" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>372</v>
       </c>
@@ -3609,8 +4912,17 @@
       <c r="C135" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>375</v>
       </c>
@@ -3620,8 +4932,17 @@
       <c r="C136" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>378</v>
       </c>
@@ -3631,8 +4952,17 @@
       <c r="C137" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>381</v>
       </c>
@@ -3642,8 +4972,17 @@
       <c r="C138" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>384</v>
       </c>
@@ -3653,8 +4992,17 @@
       <c r="C139" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>387</v>
       </c>
@@ -3664,8 +5012,17 @@
       <c r="C140" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>390</v>
       </c>
@@ -3675,8 +5032,17 @@
       <c r="C141" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>393</v>
       </c>
@@ -3686,8 +5052,17 @@
       <c r="C142" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>396</v>
       </c>
@@ -3697,8 +5072,17 @@
       <c r="C143" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>399</v>
       </c>
@@ -3708,8 +5092,17 @@
       <c r="C144" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>402</v>
       </c>
@@ -3719,8 +5112,17 @@
       <c r="C145" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>405</v>
       </c>
@@ -3730,8 +5132,17 @@
       <c r="C146" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>408</v>
       </c>
@@ -3741,8 +5152,17 @@
       <c r="C147" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>411</v>
       </c>
@@ -3752,8 +5172,17 @@
       <c r="C148" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>414</v>
       </c>
@@ -3763,8 +5192,17 @@
       <c r="C149" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>417</v>
       </c>
@@ -3774,8 +5212,17 @@
       <c r="C150" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>420</v>
       </c>
@@ -3785,8 +5232,17 @@
       <c r="C151" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>423</v>
       </c>
@@ -3796,8 +5252,17 @@
       <c r="C152" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>426</v>
       </c>
@@ -3807,8 +5272,17 @@
       <c r="C153" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>429</v>
       </c>
@@ -3818,8 +5292,17 @@
       <c r="C154" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>432</v>
       </c>
@@ -3829,8 +5312,17 @@
       <c r="C155" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>435</v>
       </c>
@@ -3840,8 +5332,17 @@
       <c r="C156" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>438</v>
       </c>
@@ -3851,8 +5352,17 @@
       <c r="C157" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>441</v>
       </c>
@@ -3862,8 +5372,17 @@
       <c r="C158" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>444</v>
       </c>
@@ -3873,8 +5392,17 @@
       <c r="C159" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>447</v>
       </c>
@@ -3884,8 +5412,17 @@
       <c r="C160" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>450</v>
       </c>
@@ -3895,8 +5432,17 @@
       <c r="C161" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>453</v>
       </c>
@@ -3906,8 +5452,17 @@
       <c r="C162" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>456</v>
       </c>
@@ -3917,8 +5472,17 @@
       <c r="C163" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>459</v>
       </c>
@@ -3928,8 +5492,17 @@
       <c r="C164" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>462</v>
       </c>
@@ -3939,8 +5512,17 @@
       <c r="C165" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>465</v>
       </c>
@@ -3950,8 +5532,17 @@
       <c r="C166" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>468</v>
       </c>
@@ -3961,8 +5552,17 @@
       <c r="C167" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>471</v>
       </c>
@@ -3972,8 +5572,17 @@
       <c r="C168" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>474</v>
       </c>
@@ -3983,8 +5592,17 @@
       <c r="C169" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>477</v>
       </c>
@@ -3994,8 +5612,17 @@
       <c r="C170" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>480</v>
       </c>
@@ -4005,8 +5632,17 @@
       <c r="C171" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>483</v>
       </c>
@@ -4016,8 +5652,17 @@
       <c r="C172" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>486</v>
       </c>
@@ -4027,8 +5672,17 @@
       <c r="C173" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>489</v>
       </c>
@@ -4038,8 +5692,17 @@
       <c r="C174" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>492</v>
       </c>
@@ -4049,8 +5712,17 @@
       <c r="C175" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>495</v>
       </c>
@@ -4060,8 +5732,17 @@
       <c r="C176" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>548</v>
       </c>
@@ -4071,8 +5752,17 @@
       <c r="C177" s="2">
         <v>13502</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>549</v>
       </c>
@@ -4082,8 +5772,17 @@
       <c r="C178" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>500</v>
       </c>
@@ -4093,8 +5792,17 @@
       <c r="C179" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>503</v>
       </c>
@@ -4104,8 +5812,17 @@
       <c r="C180" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>506</v>
       </c>
@@ -4115,8 +5832,17 @@
       <c r="C181" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>509</v>
       </c>
@@ -4126,8 +5852,17 @@
       <c r="C182" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>512</v>
       </c>
@@ -4137,8 +5872,17 @@
       <c r="C183" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>515</v>
       </c>
@@ -4148,8 +5892,17 @@
       <c r="C184" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>543</v>
       </c>
@@ -4159,8 +5912,17 @@
       <c r="C185" s="2">
         <v>693</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>518</v>
       </c>
@@ -4170,8 +5932,17 @@
       <c r="C186" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>521</v>
       </c>
@@ -4181,8 +5952,17 @@
       <c r="C187" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>524</v>
       </c>
@@ -4192,8 +5972,17 @@
       <c r="C188" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>527</v>
       </c>
@@ -4203,8 +5992,17 @@
       <c r="C189" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>530</v>
       </c>
@@ -4214,8 +6012,17 @@
       <c r="C190" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>533</v>
       </c>
@@ -4224,6 +6031,15 @@
       </c>
       <c r="C191" s="2" t="s">
         <v>535</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/BinanceFuture_Input.xlsx
+++ b/BinanceFuture_Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m01\Desktop\Researchan\Crypto_InfoSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD58161-10DE-4B6D-B211-6ED9B9A9544C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB4004-01F4-4A41-A584-AC61EBA6EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="569">
   <si>
     <t>CMC_id</t>
   </si>
@@ -1753,6 +1753,22 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>YGG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield-guild-games</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1878,7 +1894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1895,10 +1911,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2206,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="L190" sqref="L190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2218,8 +2231,8 @@
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9" style="8"/>
+    <col min="5" max="5" width="12.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2232,13 +2245,13 @@
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>562</v>
       </c>
     </row>
@@ -2252,13 +2265,13 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2272,13 +2285,13 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2292,13 +2305,13 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2312,13 +2325,13 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2332,13 +2345,13 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2352,13 +2365,13 @@
       <c r="C7" s="2">
         <v>11568</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2372,13 +2385,13 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2392,13 +2405,13 @@
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2412,13 +2425,13 @@
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2432,13 +2445,13 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2452,13 +2465,13 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2472,13 +2485,13 @@
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2492,13 +2505,13 @@
       <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2512,13 +2525,13 @@
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2532,13 +2545,13 @@
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2552,13 +2565,13 @@
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2572,13 +2585,13 @@
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="D18" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2592,13 +2605,13 @@
       <c r="C19" s="2">
         <v>27565</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2612,13 +2625,13 @@
       <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="D20" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2632,13 +2645,13 @@
       <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="D21" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2652,13 +2665,13 @@
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="D22" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2672,13 +2685,13 @@
       <c r="C23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="D23" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2692,13 +2705,13 @@
       <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="D24" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2712,13 +2725,13 @@
       <c r="C25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="D25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2732,13 +2745,13 @@
       <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="D26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2752,13 +2765,13 @@
       <c r="C27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="D27" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2772,13 +2785,13 @@
       <c r="C28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="D28" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2792,13 +2805,13 @@
       <c r="C29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="D29" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2812,13 +2825,13 @@
       <c r="C30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="D30" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2832,13 +2845,13 @@
       <c r="C31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="D31" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2852,13 +2865,13 @@
       <c r="C32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="D32" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2872,13 +2885,13 @@
       <c r="C33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="D33" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2892,13 +2905,13 @@
       <c r="C34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="D34" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2912,13 +2925,13 @@
       <c r="C35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="D35" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2932,13 +2945,13 @@
       <c r="C36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="D36" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -2952,13 +2965,13 @@
       <c r="C37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="D37" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2972,13 +2985,13 @@
       <c r="C38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="D38" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -2992,13 +3005,13 @@
       <c r="C39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="D39" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3012,13 +3025,13 @@
       <c r="C40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="D40" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3032,13 +3045,13 @@
       <c r="C41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="D41" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3052,13 +3065,13 @@
       <c r="C42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="D42" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3072,13 +3085,13 @@
       <c r="C43" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="D43" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3092,13 +3105,13 @@
       <c r="C44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F44" s="8" t="s">
+      <c r="D44" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3112,13 +3125,13 @@
       <c r="C45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="D45" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3132,13 +3145,13 @@
       <c r="C46" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="D46" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3152,13 +3165,13 @@
       <c r="C47" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="D47" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3172,13 +3185,13 @@
       <c r="C48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="D48" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3192,13 +3205,13 @@
       <c r="C49" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="D49" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3212,13 +3225,13 @@
       <c r="C50" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="D50" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3232,13 +3245,13 @@
       <c r="C51" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="D51" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3252,13 +3265,13 @@
       <c r="C52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="D52" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3272,13 +3285,13 @@
       <c r="C53" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="D53" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3292,13 +3305,13 @@
       <c r="C54" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F54" s="8" t="s">
+      <c r="D54" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3312,13 +3325,13 @@
       <c r="C55" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="D55" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3332,13 +3345,13 @@
       <c r="C56" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F56" s="8" t="s">
+      <c r="D56" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3352,13 +3365,13 @@
       <c r="C57" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F57" s="8" t="s">
+      <c r="D57" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3372,13 +3385,13 @@
       <c r="C58" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F58" s="8" t="s">
+      <c r="D58" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3392,13 +3405,13 @@
       <c r="C59" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F59" s="8" t="s">
+      <c r="D59" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3412,13 +3425,13 @@
       <c r="C60" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F60" s="8" t="s">
+      <c r="D60" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3432,13 +3445,13 @@
       <c r="C61" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F61" s="8" t="s">
+      <c r="D61" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3452,13 +3465,13 @@
       <c r="C62" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F62" s="8" t="s">
+      <c r="D62" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3472,13 +3485,13 @@
       <c r="C63" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F63" s="8" t="s">
+      <c r="D63" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3492,13 +3505,13 @@
       <c r="C64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="D64" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3512,13 +3525,13 @@
       <c r="C65" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F65" s="8" t="s">
+      <c r="D65" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3532,13 +3545,13 @@
       <c r="C66" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F66" s="8" t="s">
+      <c r="D66" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3552,13 +3565,13 @@
       <c r="C67" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F67" s="8" t="s">
+      <c r="D67" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3572,13 +3585,13 @@
       <c r="C68" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F68" s="8" t="s">
+      <c r="D68" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3592,13 +3605,13 @@
       <c r="C69" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F69" s="8" t="s">
+      <c r="D69" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3612,13 +3625,13 @@
       <c r="C70" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F70" s="8" t="s">
+      <c r="D70" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3632,13 +3645,13 @@
       <c r="C71" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F71" s="8" t="s">
+      <c r="D71" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3652,13 +3665,13 @@
       <c r="C72" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F72" s="8" t="s">
+      <c r="D72" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3672,13 +3685,13 @@
       <c r="C73" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F73" s="8" t="s">
+      <c r="D73" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3692,13 +3705,13 @@
       <c r="C74" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F74" s="8" t="s">
+      <c r="D74" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3712,13 +3725,13 @@
       <c r="C75" s="2">
         <v>11877</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F75" s="8" t="s">
+      <c r="D75" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3732,13 +3745,13 @@
       <c r="C76" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F76" s="8" t="s">
+      <c r="D76" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3752,13 +3765,13 @@
       <c r="C77" s="2">
         <v>18069</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F77" s="8" t="s">
+      <c r="D77" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3772,13 +3785,13 @@
       <c r="C78" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F78" s="8" t="s">
+      <c r="D78" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3792,13 +3805,13 @@
       <c r="C79" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F79" s="8" t="s">
+      <c r="D79" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3812,13 +3825,13 @@
       <c r="C80" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F80" s="8" t="s">
+      <c r="D80" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3832,13 +3845,13 @@
       <c r="C81" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F81" s="8" t="s">
+      <c r="D81" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3852,13 +3865,13 @@
       <c r="C82" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F82" s="8" t="s">
+      <c r="D82" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3872,13 +3885,13 @@
       <c r="C83" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F83" s="8" t="s">
+      <c r="D83" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3892,13 +3905,13 @@
       <c r="C84" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F84" s="8" t="s">
+      <c r="D84" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3912,13 +3925,13 @@
       <c r="C85" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F85" s="8" t="s">
+      <c r="D85" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3932,13 +3945,13 @@
       <c r="C86" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F86" s="8" t="s">
+      <c r="D86" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3952,13 +3965,13 @@
       <c r="C87" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F87" s="8" t="s">
+      <c r="D87" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3972,13 +3985,13 @@
       <c r="C88" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F88" s="8" t="s">
+      <c r="D88" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3992,13 +4005,13 @@
       <c r="C89" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F89" s="8" t="s">
+      <c r="D89" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4012,13 +4025,13 @@
       <c r="C90" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F90" s="8" t="s">
+      <c r="D90" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4032,13 +4045,13 @@
       <c r="C91" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F91" s="8" t="s">
+      <c r="D91" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4052,13 +4065,13 @@
       <c r="C92" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F92" s="8" t="s">
+      <c r="D92" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4072,13 +4085,13 @@
       <c r="C93" s="2">
         <v>1720</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F93" s="8" t="s">
+      <c r="D93" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4092,13 +4105,13 @@
       <c r="C94" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F94" s="8" t="s">
+      <c r="D94" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4112,13 +4125,13 @@
       <c r="C95" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F95" s="8" t="s">
+      <c r="D95" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4132,13 +4145,13 @@
       <c r="C96" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F96" s="8" t="s">
+      <c r="D96" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4152,13 +4165,13 @@
       <c r="C97" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F97" s="8" t="s">
+      <c r="D97" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4172,13 +4185,13 @@
       <c r="C98" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F98" s="8" t="s">
+      <c r="D98" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4192,13 +4205,13 @@
       <c r="C99" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F99" s="8" t="s">
+      <c r="D99" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4212,13 +4225,13 @@
       <c r="C100" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F100" s="8" t="s">
+      <c r="D100" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4232,13 +4245,13 @@
       <c r="C101" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F101" s="8" t="s">
+      <c r="D101" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4252,13 +4265,13 @@
       <c r="C102" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F102" s="8" t="s">
+      <c r="D102" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4272,13 +4285,13 @@
       <c r="C103" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F103" s="8" t="s">
+      <c r="D103" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4292,13 +4305,13 @@
       <c r="C104" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F104" s="8" t="s">
+      <c r="D104" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4312,13 +4325,13 @@
       <c r="C105" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F105" s="8" t="s">
+      <c r="D105" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4332,13 +4345,13 @@
       <c r="C106" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F106" s="8" t="s">
+      <c r="D106" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F106" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4352,13 +4365,13 @@
       <c r="C107" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F107" s="8" t="s">
+      <c r="D107" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4372,13 +4385,13 @@
       <c r="C108" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F108" s="8" t="s">
+      <c r="D108" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F108" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4392,13 +4405,13 @@
       <c r="C109" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F109" s="8" t="s">
+      <c r="D109" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F109" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4412,13 +4425,13 @@
       <c r="C110" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F110" s="8" t="s">
+      <c r="D110" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F110" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4432,13 +4445,13 @@
       <c r="C111" s="2">
         <v>20314</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F111" s="8" t="s">
+      <c r="D111" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F111" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4452,13 +4465,13 @@
       <c r="C112" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F112" s="8" t="s">
+      <c r="D112" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F112" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4472,13 +4485,13 @@
       <c r="C113" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F113" s="8" t="s">
+      <c r="D113" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4492,13 +4505,13 @@
       <c r="C114" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F114" s="8" t="s">
+      <c r="D114" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F114" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4512,13 +4525,13 @@
       <c r="C115" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F115" s="8" t="s">
+      <c r="D115" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F115" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4532,13 +4545,13 @@
       <c r="C116" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F116" s="8" t="s">
+      <c r="D116" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F116" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4552,13 +4565,13 @@
       <c r="C117" s="2">
         <v>18037</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F117" s="8" t="s">
+      <c r="D117" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F117" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4572,13 +4585,13 @@
       <c r="C118" s="2">
         <v>2348</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F118" s="8" t="s">
+      <c r="D118" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F118" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4592,13 +4605,13 @@
       <c r="C119" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F119" s="8" t="s">
+      <c r="D119" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4612,13 +4625,13 @@
       <c r="C120" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F120" s="8" t="s">
+      <c r="D120" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F120" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4632,13 +4645,13 @@
       <c r="C121" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F121" s="8" t="s">
+      <c r="D121" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F121" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4652,13 +4665,13 @@
       <c r="C122" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F122" s="8" t="s">
+      <c r="D122" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F122" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4672,13 +4685,13 @@
       <c r="C123" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F123" s="8" t="s">
+      <c r="D123" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F123" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4692,13 +4705,13 @@
       <c r="C124" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F124" s="8" t="s">
+      <c r="D124" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4712,13 +4725,13 @@
       <c r="C125" s="2">
         <v>1732</v>
       </c>
-      <c r="D125" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F125" s="8" t="s">
+      <c r="D125" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F125" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4732,13 +4745,13 @@
       <c r="C126" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D126" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F126" s="8" t="s">
+      <c r="D126" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F126" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4752,13 +4765,13 @@
       <c r="C127" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D127" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F127" s="8" t="s">
+      <c r="D127" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4772,13 +4785,13 @@
       <c r="C128" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F128" s="8" t="s">
+      <c r="D128" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F128" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4792,13 +4805,13 @@
       <c r="C129" s="2">
         <v>3945</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F129" s="8" t="s">
+      <c r="D129" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F129" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4812,13 +4825,13 @@
       <c r="C130" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F130" s="8" t="s">
+      <c r="D130" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F130" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4832,13 +4845,13 @@
       <c r="C131" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D131" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F131" s="8" t="s">
+      <c r="D131" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F131" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4852,13 +4865,13 @@
       <c r="C132" s="2">
         <v>9481</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F132" s="8" t="s">
+      <c r="D132" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F132" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4872,13 +4885,13 @@
       <c r="C133" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F133" s="8" t="s">
+      <c r="D133" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F133" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4892,13 +4905,13 @@
       <c r="C134" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F134" s="8" t="s">
+      <c r="D134" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F134" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4912,13 +4925,13 @@
       <c r="C135" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D135" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F135" s="8" t="s">
+      <c r="D135" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F135" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4932,13 +4945,13 @@
       <c r="C136" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D136" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F136" s="8" t="s">
+      <c r="D136" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F136" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4952,13 +4965,13 @@
       <c r="C137" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F137" s="8" t="s">
+      <c r="D137" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F137" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4972,13 +4985,13 @@
       <c r="C138" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F138" s="8" t="s">
+      <c r="D138" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F138" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4992,13 +5005,13 @@
       <c r="C139" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D139" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F139" s="8" t="s">
+      <c r="D139" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5012,13 +5025,13 @@
       <c r="C140" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D140" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F140" s="8" t="s">
+      <c r="D140" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5032,13 +5045,13 @@
       <c r="C141" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D141" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F141" s="8" t="s">
+      <c r="D141" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F141" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5052,13 +5065,13 @@
       <c r="C142" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F142" s="8" t="s">
+      <c r="D142" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F142" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5072,13 +5085,13 @@
       <c r="C143" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D143" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F143" s="8" t="s">
+      <c r="D143" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F143" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5092,13 +5105,13 @@
       <c r="C144" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D144" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F144" s="8" t="s">
+      <c r="D144" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F144" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5112,13 +5125,13 @@
       <c r="C145" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D145" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F145" s="8" t="s">
+      <c r="D145" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F145" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5132,13 +5145,13 @@
       <c r="C146" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D146" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F146" s="8" t="s">
+      <c r="D146" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F146" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5152,13 +5165,13 @@
       <c r="C147" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D147" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F147" s="8" t="s">
+      <c r="D147" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F147" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5172,13 +5185,13 @@
       <c r="C148" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D148" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F148" s="8" t="s">
+      <c r="D148" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F148" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5192,13 +5205,13 @@
       <c r="C149" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D149" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F149" s="8" t="s">
+      <c r="D149" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F149" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5212,13 +5225,13 @@
       <c r="C150" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D150" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F150" s="8" t="s">
+      <c r="D150" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F150" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5232,13 +5245,13 @@
       <c r="C151" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D151" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F151" s="8" t="s">
+      <c r="D151" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F151" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5252,13 +5265,13 @@
       <c r="C152" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D152" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F152" s="8" t="s">
+      <c r="D152" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F152" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5272,13 +5285,13 @@
       <c r="C153" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D153" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F153" s="8" t="s">
+      <c r="D153" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F153" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5292,13 +5305,13 @@
       <c r="C154" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D154" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F154" s="8" t="s">
+      <c r="D154" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F154" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5312,13 +5325,13 @@
       <c r="C155" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D155" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F155" s="8" t="s">
+      <c r="D155" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F155" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5332,13 +5345,13 @@
       <c r="C156" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D156" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F156" s="8" t="s">
+      <c r="D156" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F156" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5352,13 +5365,13 @@
       <c r="C157" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D157" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F157" s="8" t="s">
+      <c r="D157" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F157" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5372,13 +5385,13 @@
       <c r="C158" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D158" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F158" s="8" t="s">
+      <c r="D158" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F158" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5392,13 +5405,13 @@
       <c r="C159" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D159" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F159" s="8" t="s">
+      <c r="D159" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F159" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5412,13 +5425,13 @@
       <c r="C160" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D160" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F160" s="8" t="s">
+      <c r="D160" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F160" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5432,13 +5445,13 @@
       <c r="C161" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D161" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F161" s="8" t="s">
+      <c r="D161" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F161" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5452,13 +5465,13 @@
       <c r="C162" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D162" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F162" s="8" t="s">
+      <c r="D162" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F162" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5472,13 +5485,13 @@
       <c r="C163" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D163" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F163" s="8" t="s">
+      <c r="D163" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F163" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5492,13 +5505,13 @@
       <c r="C164" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D164" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F164" s="8" t="s">
+      <c r="D164" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F164" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5512,13 +5525,13 @@
       <c r="C165" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D165" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F165" s="8" t="s">
+      <c r="D165" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F165" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5532,13 +5545,13 @@
       <c r="C166" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D166" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F166" s="8" t="s">
+      <c r="D166" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F166" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5552,13 +5565,13 @@
       <c r="C167" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D167" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F167" s="8" t="s">
+      <c r="D167" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F167" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5572,13 +5585,13 @@
       <c r="C168" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D168" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F168" s="8" t="s">
+      <c r="D168" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F168" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5592,13 +5605,13 @@
       <c r="C169" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D169" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F169" s="8" t="s">
+      <c r="D169" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F169" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5612,13 +5625,13 @@
       <c r="C170" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D170" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F170" s="8" t="s">
+      <c r="D170" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F170" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5632,13 +5645,13 @@
       <c r="C171" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D171" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E171" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F171" s="8" t="s">
+      <c r="D171" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F171" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5652,13 +5665,13 @@
       <c r="C172" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D172" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F172" s="8" t="s">
+      <c r="D172" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F172" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5672,13 +5685,13 @@
       <c r="C173" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D173" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E173" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F173" s="8" t="s">
+      <c r="D173" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F173" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5692,13 +5705,13 @@
       <c r="C174" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D174" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F174" s="8" t="s">
+      <c r="D174" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F174" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5712,13 +5725,13 @@
       <c r="C175" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D175" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F175" s="8" t="s">
+      <c r="D175" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F175" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5732,13 +5745,13 @@
       <c r="C176" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D176" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F176" s="8" t="s">
+      <c r="D176" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F176" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5752,13 +5765,13 @@
       <c r="C177" s="2">
         <v>13502</v>
       </c>
-      <c r="D177" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F177" s="8" t="s">
+      <c r="D177" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F177" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5772,13 +5785,13 @@
       <c r="C178" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D178" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F178" s="8" t="s">
+      <c r="D178" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F178" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5792,13 +5805,13 @@
       <c r="C179" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D179" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F179" s="8" t="s">
+      <c r="D179" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F179" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5812,13 +5825,13 @@
       <c r="C180" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D180" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F180" s="8" t="s">
+      <c r="D180" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F180" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5832,13 +5845,13 @@
       <c r="C181" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D181" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F181" s="8" t="s">
+      <c r="D181" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F181" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5852,13 +5865,13 @@
       <c r="C182" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D182" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F182" s="8" t="s">
+      <c r="D182" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F182" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5872,13 +5885,13 @@
       <c r="C183" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D183" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E183" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F183" s="8" t="s">
+      <c r="D183" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F183" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5892,13 +5905,13 @@
       <c r="C184" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D184" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E184" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F184" s="8" t="s">
+      <c r="D184" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F184" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5912,13 +5925,13 @@
       <c r="C185" s="2">
         <v>693</v>
       </c>
-      <c r="D185" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E185" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F185" s="8" t="s">
+      <c r="D185" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F185" s="7" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5932,13 +5945,13 @@
       <c r="C186" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D186" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F186" s="8" t="s">
+      <c r="D186" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F186" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5952,93 +5965,113 @@
       <c r="C187" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D187" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F187" s="8" t="s">
+      <c r="D187" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F187" s="7" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="B188" t="s">
-        <v>525</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F188" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
+      </c>
+      <c r="C188" s="2">
+        <v>10688</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B189" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F189" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F189" s="7" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B190" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F190" s="8" t="s">
-        <v>563</v>
+        <v>529</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B191" t="s">
+        <v>531</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>534</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D191" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F191" s="8" t="s">
+      <c r="D192" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F192" s="7" t="s">
         <v>563</v>
       </c>
     </row>

--- a/BinanceFuture_Input.xlsx
+++ b/BinanceFuture_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB4004-01F4-4A41-A584-AC61EBA6EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C5E028-6D23-4C8E-AF42-938F1ECC4776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="568">
   <si>
     <t>CMC_id</t>
   </si>
@@ -1764,10 +1764,6 @@
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2221,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="L190" sqref="L190"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2289,7 +2285,7 @@
         <v>563</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>563</v>
@@ -2329,7 +2325,7 @@
         <v>563</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>563</v>
@@ -2369,7 +2365,7 @@
         <v>564</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>564</v>
@@ -2389,7 +2385,7 @@
         <v>563</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>563</v>
@@ -2469,7 +2465,7 @@
         <v>563</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>563</v>
@@ -2509,7 +2505,7 @@
         <v>564</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>563</v>
@@ -2529,7 +2525,7 @@
         <v>564</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>564</v>
@@ -2549,7 +2545,7 @@
         <v>563</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>563</v>
@@ -2589,7 +2585,7 @@
         <v>563</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>563</v>
@@ -2629,7 +2625,7 @@
         <v>564</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>563</v>
@@ -2649,7 +2645,7 @@
         <v>564</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>564</v>
@@ -2689,7 +2685,7 @@
         <v>563</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>563</v>
@@ -2709,7 +2705,7 @@
         <v>564</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>564</v>
@@ -2729,7 +2725,7 @@
         <v>563</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>563</v>
@@ -2749,7 +2745,7 @@
         <v>563</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>563</v>
@@ -5989,7 +5985,7 @@
         <v>567</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>567</v>

--- a/BinanceFuture_Input.xlsx
+++ b/BinanceFuture_Input.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C5E028-6D23-4C8E-AF42-938F1ECC4776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCE2779-8160-47A5-93C3-D0124ED3A7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="571">
   <si>
     <t>CMC_id</t>
   </si>
@@ -1764,6 +1767,18 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bancor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2215,10 +2230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2933,56 +2949,56 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>568</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>99</v>
+        <v>569</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1727</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>564</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>564</v>
@@ -2993,53 +3009,53 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>564</v>
@@ -3053,19 +3069,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>563</v>
@@ -3073,16 +3089,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>563</v>
@@ -3093,19 +3109,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>563</v>
@@ -3113,13 +3129,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>564</v>
@@ -3128,44 +3144,44 @@
         <v>564</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>558</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>563</v>
@@ -3173,19 +3189,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>563</v>
@@ -3193,19 +3209,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>563</v>
@@ -3213,19 +3229,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>555</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>563</v>
@@ -3233,33 +3249,33 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>564</v>
@@ -3268,18 +3284,18 @@
         <v>564</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>564</v>
@@ -3288,24 +3304,24 @@
         <v>564</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>564</v>
@@ -3313,13 +3329,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>564</v>
@@ -3333,19 +3349,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>564</v>
@@ -3353,33 +3369,33 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>563</v>
@@ -3393,33 +3409,33 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>564</v>
@@ -3428,18 +3444,18 @@
         <v>564</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>564</v>
@@ -3448,38 +3464,38 @@
         <v>564</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>563</v>
@@ -3493,16 +3509,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>563</v>
@@ -3513,16 +3529,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>563</v>
@@ -3533,13 +3549,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>563</v>
@@ -3553,13 +3569,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>563</v>
@@ -3573,19 +3589,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>563</v>
@@ -3593,39 +3609,39 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>564</v>
@@ -3633,13 +3649,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>564</v>
@@ -3648,24 +3664,24 @@
         <v>564</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>563</v>
@@ -3673,19 +3689,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B73" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>563</v>
@@ -3693,13 +3709,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>564</v>
@@ -3708,24 +3724,24 @@
         <v>564</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" s="2">
-        <v>11877</v>
+        <v>208</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>564</v>
@@ -3733,39 +3749,39 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="C76" s="2">
+        <v>11877</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="2">
-        <v>18069</v>
+        <v>213</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>563</v>
@@ -3773,19 +3789,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s">
-        <v>218</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="C78" s="2">
+        <v>18069</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>563</v>
@@ -3793,19 +3809,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>563</v>
@@ -3813,39 +3829,39 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B80" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>563</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>564</v>
@@ -3853,16 +3869,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>564</v>
@@ -3873,13 +3889,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B83" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>564</v>
@@ -3893,13 +3909,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>564</v>
@@ -3908,18 +3924,18 @@
         <v>564</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>564</v>
@@ -3928,18 +3944,18 @@
         <v>564</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>564</v>
@@ -3953,36 +3969,36 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>564</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>564</v>
@@ -3993,13 +4009,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B89" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>564</v>
@@ -4008,41 +4024,41 @@
         <v>564</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B90" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B91" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>563</v>
@@ -4053,16 +4069,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>563</v>
@@ -4073,39 +4089,39 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B93" t="s">
-        <v>263</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1720</v>
+        <v>260</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>563</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1720</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>564</v>
@@ -4113,33 +4129,33 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B95" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B96" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>564</v>
@@ -4148,24 +4164,24 @@
         <v>564</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B97" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>564</v>
@@ -4173,19 +4189,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>564</v>
@@ -4193,13 +4209,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B99" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>564</v>
@@ -4208,21 +4224,21 @@
         <v>564</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B100" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>564</v>
@@ -4233,16 +4249,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B101" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>564</v>
@@ -4253,13 +4269,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>564</v>
@@ -4273,13 +4289,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B103" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>564</v>
@@ -4288,41 +4304,41 @@
         <v>564</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B105" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>563</v>
@@ -4333,113 +4349,113 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B106" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B107" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B108" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B109" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B110" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B111" t="s">
-        <v>316</v>
-      </c>
-      <c r="C111" s="2">
-        <v>20314</v>
+        <v>313</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>564</v>
@@ -4453,13 +4469,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>318</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="C112" s="2">
+        <v>20314</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>564</v>
@@ -4473,19 +4489,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B113" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>564</v>
@@ -4493,33 +4509,33 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B114" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>563</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B115" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>563</v>
@@ -4533,13 +4549,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B116" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>563</v>
@@ -4553,19 +4569,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>536</v>
+        <v>329</v>
       </c>
       <c r="B117" t="s">
-        <v>539</v>
-      </c>
-      <c r="C117" s="2">
-        <v>18037</v>
+        <v>330</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>563</v>
@@ -4573,13 +4589,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B118" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C118" s="2">
-        <v>2348</v>
+        <v>18037</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>564</v>
@@ -4588,24 +4604,24 @@
         <v>564</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>332</v>
+        <v>537</v>
       </c>
       <c r="B119" t="s">
-        <v>333</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>334</v>
+        <v>538</v>
+      </c>
+      <c r="C119" s="2">
+        <v>2348</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>564</v>
@@ -4613,13 +4629,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B120" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>564</v>
@@ -4628,21 +4644,21 @@
         <v>563</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B121" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>563</v>
@@ -4653,13 +4669,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>563</v>
@@ -4668,24 +4684,24 @@
         <v>563</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B123" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>563</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>564</v>
@@ -4693,19 +4709,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>564</v>
@@ -4713,13 +4729,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>540</v>
+        <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>542</v>
-      </c>
-      <c r="C125" s="2">
-        <v>1732</v>
+        <v>348</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>564</v>
@@ -4728,18 +4744,18 @@
         <v>563</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B126" t="s">
-        <v>350</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>351</v>
+        <v>542</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1732</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>564</v>
@@ -4753,13 +4769,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>352</v>
+        <v>541</v>
       </c>
       <c r="B127" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>564</v>
@@ -4773,33 +4789,33 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B128" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B129" t="s">
-        <v>359</v>
-      </c>
-      <c r="C129" s="2">
-        <v>3945</v>
+        <v>356</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>564</v>
@@ -4813,36 +4829,36 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B130" t="s">
-        <v>361</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="C130" s="2">
+        <v>3945</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>564</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B131" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>564</v>
@@ -4853,13 +4869,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>546</v>
+        <v>363</v>
       </c>
       <c r="B132" t="s">
-        <v>547</v>
-      </c>
-      <c r="C132" s="2">
-        <v>9481</v>
+        <v>364</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>564</v>
@@ -4868,18 +4884,18 @@
         <v>564</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>366</v>
+        <v>546</v>
       </c>
       <c r="B133" t="s">
-        <v>367</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>368</v>
+        <v>547</v>
+      </c>
+      <c r="C133" s="2">
+        <v>9481</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>564</v>
@@ -4893,13 +4909,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B134" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>564</v>
@@ -4908,18 +4924,18 @@
         <v>564</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B135" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>564</v>
@@ -4928,18 +4944,18 @@
         <v>564</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B136" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>564</v>
@@ -4953,13 +4969,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B137" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>564</v>
@@ -4973,59 +4989,59 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B138" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B139" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>563</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B140" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>564</v>
@@ -5033,13 +5049,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B141" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>564</v>
@@ -5053,13 +5069,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B142" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>564</v>
@@ -5068,24 +5084,24 @@
         <v>564</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B143" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>563</v>
@@ -5093,13 +5109,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B144" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>564</v>
@@ -5113,79 +5129,79 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B145" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B147" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B148" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>564</v>
@@ -5193,39 +5209,39 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B149" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>563</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B150" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>563</v>
@@ -5233,16 +5249,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B151" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>564</v>
@@ -5253,56 +5269,56 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B152" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>564</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B153" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B154" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E154" s="7" t="s">
         <v>563</v>
@@ -5313,33 +5329,33 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B155" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B156" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>564</v>
@@ -5353,13 +5369,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B157" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>564</v>
@@ -5368,38 +5384,38 @@
         <v>564</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B158" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B159" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>563</v>
@@ -5413,13 +5429,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B160" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>563</v>
@@ -5428,18 +5444,18 @@
         <v>563</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B161" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>563</v>
@@ -5453,19 +5469,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B162" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F162" s="7" t="s">
         <v>563</v>
@@ -5473,19 +5489,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B163" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>563</v>
@@ -5493,13 +5509,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B164" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>563</v>
@@ -5513,19 +5529,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B165" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>563</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>563</v>
@@ -5533,33 +5549,33 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B166" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>564</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B167" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>564</v>
@@ -5573,13 +5589,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B168" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>564</v>
@@ -5593,13 +5609,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B169" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>564</v>
@@ -5613,39 +5629,39 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B170" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B171" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>563</v>
@@ -5653,13 +5669,13 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B172" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>564</v>
@@ -5668,78 +5684,78 @@
         <v>564</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B173" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B174" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B175" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B176" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>563</v>
@@ -5753,19 +5769,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="B177" t="s">
-        <v>550</v>
-      </c>
-      <c r="C177" s="2">
-        <v>13502</v>
+        <v>496</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F177" s="7" t="s">
         <v>563</v>
@@ -5773,13 +5789,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B178" t="s">
-        <v>498</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>499</v>
+        <v>550</v>
+      </c>
+      <c r="C178" s="2">
+        <v>13502</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>564</v>
@@ -5793,16 +5809,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="B179" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>564</v>
@@ -5813,33 +5829,33 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B180" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>563</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B181" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>563</v>
@@ -5848,58 +5864,58 @@
         <v>563</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B182" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B183" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B184" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>563</v>
@@ -5913,33 +5929,33 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="B185" t="s">
-        <v>545</v>
-      </c>
-      <c r="C185" s="2">
-        <v>693</v>
+        <v>516</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="B186" t="s">
-        <v>519</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>520</v>
+        <v>545</v>
+      </c>
+      <c r="C186" s="2">
+        <v>693</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>564</v>
@@ -5948,18 +5964,18 @@
         <v>564</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B187" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>564</v>
@@ -5973,53 +5989,53 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="B188" t="s">
-        <v>566</v>
-      </c>
-      <c r="C188" s="2">
-        <v>10688</v>
+        <v>522</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="B189" t="s">
-        <v>525</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>526</v>
+        <v>566</v>
+      </c>
+      <c r="C189" s="2">
+        <v>10688</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B190" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>564</v>
@@ -6033,45 +6049,66 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B191" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B192" t="s">
+        <v>531</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>534</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D192" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="F192" s="7" t="s">
+      <c r="D193" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F193" s="7" t="s">
         <v>563</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BinanceFuture_Input.xlsx
+++ b/BinanceFuture_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCE2779-8160-47A5-93C3-D0124ED3A7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E64F1B1-4625-4B2D-A611-07A80B63E8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="575">
   <si>
     <t>CMC_id</t>
   </si>
@@ -1779,6 +1779,21 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orchid-protocol</t>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2230,11 +2245,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3904,7 +3919,7 @@
         <v>564</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -4889,33 +4904,33 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="B133" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="C133" s="2">
-        <v>9481</v>
+        <v>5026</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>366</v>
+        <v>546</v>
       </c>
       <c r="B134" t="s">
-        <v>367</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>368</v>
+        <v>547</v>
+      </c>
+      <c r="C134" s="2">
+        <v>9481</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>564</v>
@@ -4929,13 +4944,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B135" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>564</v>
@@ -4944,18 +4959,18 @@
         <v>564</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B136" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>564</v>
@@ -4964,18 +4979,18 @@
         <v>564</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B137" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>564</v>
@@ -4989,13 +5004,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B138" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>564</v>
@@ -5009,59 +5024,59 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B139" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B140" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>563</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B141" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>564</v>
@@ -5069,13 +5084,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B142" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>564</v>
@@ -5089,13 +5104,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B143" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>564</v>
@@ -5104,24 +5119,24 @@
         <v>564</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B144" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>563</v>
@@ -5129,13 +5144,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B145" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>564</v>
@@ -5149,79 +5164,79 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B146" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B147" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B148" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B149" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>564</v>
@@ -5229,39 +5244,39 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B150" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>563</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B151" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>563</v>
@@ -5269,16 +5284,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B152" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>564</v>
@@ -5289,56 +5304,56 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B153" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>564</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B154" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B155" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>563</v>
@@ -5349,33 +5364,33 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B156" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B157" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>564</v>
@@ -5389,13 +5404,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B158" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>564</v>
@@ -5404,38 +5419,38 @@
         <v>564</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B159" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B160" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>563</v>
@@ -5449,13 +5464,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B161" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>563</v>
@@ -5464,18 +5479,18 @@
         <v>563</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B162" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>563</v>
@@ -5489,19 +5504,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B163" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>563</v>
@@ -5509,19 +5524,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B164" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>563</v>
@@ -5529,13 +5544,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B165" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>563</v>
@@ -5549,19 +5564,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B166" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>563</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>563</v>
@@ -5569,33 +5584,33 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B167" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>564</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B168" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>564</v>
@@ -5609,13 +5624,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B169" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>564</v>
@@ -5629,13 +5644,13 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B170" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>564</v>
@@ -5649,39 +5664,39 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B171" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B172" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>563</v>
@@ -5689,13 +5704,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B173" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>564</v>
@@ -5704,78 +5719,78 @@
         <v>564</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B174" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B175" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B176" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B177" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>563</v>
@@ -5789,19 +5804,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="B178" t="s">
-        <v>550</v>
-      </c>
-      <c r="C178" s="2">
-        <v>13502</v>
+        <v>496</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>563</v>
@@ -5809,13 +5824,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B179" t="s">
-        <v>498</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>499</v>
+        <v>550</v>
+      </c>
+      <c r="C179" s="2">
+        <v>13502</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>564</v>
@@ -5829,16 +5844,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="B180" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E180" s="7" t="s">
         <v>564</v>
@@ -5849,33 +5864,33 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B181" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>563</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B182" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>563</v>
@@ -5884,58 +5899,58 @@
         <v>563</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B183" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B184" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B185" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>563</v>
@@ -5949,33 +5964,33 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="B186" t="s">
-        <v>545</v>
-      </c>
-      <c r="C186" s="2">
-        <v>693</v>
+        <v>516</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="B187" t="s">
-        <v>519</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>520</v>
+        <v>545</v>
+      </c>
+      <c r="C187" s="2">
+        <v>693</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>564</v>
@@ -5984,18 +5999,18 @@
         <v>564</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B188" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>564</v>
@@ -6009,53 +6024,53 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="B189" t="s">
-        <v>566</v>
-      </c>
-      <c r="C189" s="2">
-        <v>10688</v>
+        <v>522</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="B190" t="s">
-        <v>525</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>526</v>
+        <v>566</v>
+      </c>
+      <c r="C190" s="2">
+        <v>10688</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B191" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>564</v>
@@ -6069,41 +6084,61 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B192" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B193" t="s">
+        <v>531</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>534</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D193" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="F193" s="7" t="s">
+      <c r="D194" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F194" s="7" t="s">
         <v>563</v>
       </c>
     </row>
